--- a/biology/Médecine/Adolphe_Burggraeve/Adolphe_Burggraeve.xlsx
+++ b/biology/Médecine/Adolphe_Burggraeve/Adolphe_Burggraeve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Burggraeve, né le 8 octobre 1806 à Gand et décédé le 10 janvier 1902[1], chirurgien et professeur de médecine à l'université de Gand en Belgique, est l'inventeur de la médecine dosimétrique qui connut un vif succès à la fin du XIXe siècle puis, à la différence de l'homéopathie de Samuel Hahnemann, tomba peu à peu dans l'oubli, laissant cependant quelques traces dans l'histoire d'entreprises pharmaceutiques telle dans la société américaine Abbott fondée en 1888 par le Docteur Wallace C. Abbott[2], laquelle démarra son activité par le 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Burggraeve, né le 8 octobre 1806 à Gand et décédé le 10 janvier 1902, chirurgien et professeur de médecine à l'université de Gand en Belgique, est l'inventeur de la médecine dosimétrique qui connut un vif succès à la fin du XIXe siècle puis, à la différence de l'homéopathie de Samuel Hahnemann, tomba peu à peu dans l'oubli, laissant cependant quelques traces dans l'histoire d'entreprises pharmaceutiques telle dans la société américaine Abbott fondée en 1888 par le Docteur Wallace C. Abbott, laquelle démarra son activité par le 
 « développement d'une nouvelle forme galénique – les « granulés dosimétriques » – pour les alcaloïdes actifs. »
-Certains aspects de cette médecine sont d'ailleurs encore pratiqués[3].
+Certains aspects de cette médecine sont d'ailleurs encore pratiqués.
 On doit aussi à Burggraeve la conception et la promotion d'un modèle de cité ouvrière visant à l'amélioration des conditions de logement des travailleurs de sa ville.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les nombreux ouvrages d'Adolphe Burggraeve en partie réimprimé récemment :
 Ouvrages divers
@@ -530,8 +544,8 @@
 Le livre de tout le monde sur la santé : notions de physiologie et d'hygiène, Didier, 1863
 Amélioration de la vie domestique de la classe ouvrière, De Busscher, 1864
 Études médico-philosophiques sur Joseph Guislain, Bruxelles, Lesigne, 1867
-L'Art de prolonger la vie, Paris, Georges Carré éd., 1890, 276 p.[4]
-Etudes sociales, Paris, Georges Carré éd., 1890, 418 p.[5]
+L'Art de prolonger la vie, Paris, Georges Carré éd., 1890, 276 p.
+Etudes sociales, Paris, Georges Carré éd., 1890, 418 p.
 Médecine dosimétrique
 Répertoire de Médecine Dosimétrique. Paris, Au Dépôt Général des Médicaments Dosimétriques Charles Chanteaud, Pharmacien, 1872
 Manuel pratique de médecine dosimétrique, 1873, rééd. Hachette Livre/BNF, 2013, 386 p.  (ISBN 978-2-0129-7463-0)
@@ -548,7 +562,7 @@
 Nouvel organon ou instrument de médecine dosimétrique fondé sur les faits cliniques consignés dans le répertoire universel de médecine dosimétrique, 1894
 Le Choléra Indien, 1892
 réimprimé par Forgotten Books, 2018
-Guide pratique de médecine dosimétrique, 1895, 330 p.[6]
+Guide pratique de médecine dosimétrique, 1895, 330 p.
 réimprimé par Hachette Livre BNF, 2016</t>
         </is>
       </c>
